--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H2">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I2">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J2">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>6974.181672112795</v>
+        <v>4890.504078419166</v>
       </c>
       <c r="R2">
-        <v>27896.72668845118</v>
+        <v>19562.01631367666</v>
       </c>
       <c r="S2">
-        <v>0.03084816622672351</v>
+        <v>0.04674633799324976</v>
       </c>
       <c r="T2">
-        <v>0.01837585995637162</v>
+        <v>0.03130166614660209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H3">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I3">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J3">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>27104.75302608509</v>
+        <v>13847.28250880729</v>
       </c>
       <c r="R3">
-        <v>162628.5181565105</v>
+        <v>83083.69505284373</v>
       </c>
       <c r="S3">
-        <v>0.1198896108809936</v>
+        <v>0.1323605374957505</v>
       </c>
       <c r="T3">
-        <v>0.1071250726987065</v>
+        <v>0.1329442754299298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H4">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I4">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J4">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>37305.14722764384</v>
+        <v>14151.60305521904</v>
       </c>
       <c r="R4">
-        <v>223830.883365863</v>
+        <v>84909.61833131422</v>
       </c>
       <c r="S4">
-        <v>0.1650079445725312</v>
+        <v>0.1352694137368787</v>
       </c>
       <c r="T4">
-        <v>0.1474396983049916</v>
+        <v>0.1358659804298399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H5">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I5">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J5">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>11961.51777904933</v>
+        <v>7551.758347816482</v>
       </c>
       <c r="R5">
-        <v>47846.07111619734</v>
+        <v>30207.03339126593</v>
       </c>
       <c r="S5">
-        <v>0.05290812687709043</v>
+        <v>0.07218418439280513</v>
       </c>
       <c r="T5">
-        <v>0.03151669771557178</v>
+        <v>0.04833502126422447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H6">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I6">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J6">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>5455.805845483275</v>
+        <v>7479.31960407779</v>
       </c>
       <c r="R6">
-        <v>32734.83507289966</v>
+        <v>44875.91762446674</v>
       </c>
       <c r="S6">
-        <v>0.0241320937042943</v>
+        <v>0.07149177192482292</v>
       </c>
       <c r="T6">
-        <v>0.02156277156500769</v>
+        <v>0.07180706574308464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H7">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I7">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J7">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>36917.37286628239</v>
+        <v>17791.87160237541</v>
       </c>
       <c r="R7">
-        <v>221504.2371976944</v>
+        <v>106751.2296142525</v>
       </c>
       <c r="S7">
-        <v>0.1632927429158879</v>
+        <v>0.1700652591472714</v>
       </c>
       <c r="T7">
-        <v>0.1459071126137823</v>
+        <v>0.1708152828698139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J8">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>689.6603959776767</v>
+        <v>946.6219229169481</v>
       </c>
       <c r="R8">
-        <v>4137.96237586606</v>
+        <v>5679.731537501689</v>
       </c>
       <c r="S8">
-        <v>0.003050502486933674</v>
+        <v>0.009048373674968829</v>
       </c>
       <c r="T8">
-        <v>0.002725718252641029</v>
+        <v>0.009088278914526182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J9">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>2680.325174148209</v>
@@ -1013,10 +1013,10 @@
         <v>24122.92656733388</v>
       </c>
       <c r="S9">
-        <v>0.0118556011875078</v>
+        <v>0.02562013741598787</v>
       </c>
       <c r="T9">
-        <v>0.01589001911549267</v>
+        <v>0.03859969145214177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J10">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>3689.018126943665</v>
+        <v>2739.230451847219</v>
       </c>
       <c r="R10">
-        <v>33201.16314249298</v>
+        <v>24653.07406662497</v>
       </c>
       <c r="S10">
-        <v>0.01631724691778489</v>
+        <v>0.02618318899037574</v>
       </c>
       <c r="T10">
-        <v>0.02186994664673939</v>
+        <v>0.03944799357832208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J11">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>1182.846314568985</v>
+        <v>1461.742980679596</v>
       </c>
       <c r="R11">
-        <v>7097.077887413912</v>
+        <v>8770.457884077578</v>
       </c>
       <c r="S11">
-        <v>0.005231960027424592</v>
+        <v>0.01397220620582664</v>
       </c>
       <c r="T11">
-        <v>0.004674917986437799</v>
+        <v>0.01403382658710363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J12">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>539.5117874285946</v>
+        <v>1447.721501136372</v>
       </c>
       <c r="R12">
-        <v>4855.606086857352</v>
+        <v>13029.49351022735</v>
       </c>
       <c r="S12">
-        <v>0.00238636589672206</v>
+        <v>0.01383818058977913</v>
       </c>
       <c r="T12">
-        <v>0.003198437524655339</v>
+        <v>0.02084881483466061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J13">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>3650.672033856372</v>
+        <v>3443.852706892377</v>
       </c>
       <c r="R13">
-        <v>32856.04830470735</v>
+        <v>30994.67436203139</v>
       </c>
       <c r="S13">
-        <v>0.0161476346665824</v>
+        <v>0.03291838633685337</v>
       </c>
       <c r="T13">
-        <v>0.02164261596386612</v>
+        <v>0.04959534506290411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H14">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I14">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J14">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>6.580028414341666</v>
+        <v>8.733725881632001</v>
       </c>
       <c r="R14">
-        <v>39.48017048605</v>
+        <v>52.402355289792</v>
       </c>
       <c r="S14">
-        <v>2.910474946671174E-05</v>
+        <v>8.348213097393717E-05</v>
       </c>
       <c r="T14">
-        <v>2.600599317645641E-05</v>
+        <v>8.385030480880975E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H15">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I15">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J15">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>25.57289922465166</v>
+        <v>24.729223756528</v>
       </c>
       <c r="R15">
-        <v>230.156093021865</v>
+        <v>222.563013808752</v>
       </c>
       <c r="S15">
-        <v>0.0001131139226463994</v>
+        <v>0.0002363765848053503</v>
       </c>
       <c r="T15">
-        <v>0.0001516061787717303</v>
+        <v>0.0003561285832254671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H16">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I16">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J16">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>35.19680735313166</v>
+        <v>25.272695797424</v>
       </c>
       <c r="R16">
-        <v>316.771266178185</v>
+        <v>227.454262176816</v>
       </c>
       <c r="S16">
-        <v>0.0001556823459619521</v>
+        <v>0.000241571412844798</v>
       </c>
       <c r="T16">
-        <v>0.0002086604815862725</v>
+        <v>0.0003639551907183874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H17">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I17">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J17">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>11.28549994324333</v>
+        <v>13.486337252064</v>
       </c>
       <c r="R17">
-        <v>67.71299965946</v>
+        <v>80.918023512384</v>
       </c>
       <c r="S17">
-        <v>4.991796809551458E-05</v>
+        <v>0.0001289104086954825</v>
       </c>
       <c r="T17">
-        <v>4.460324728647075E-05</v>
+        <v>0.0001294789308327435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H18">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I18">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J18">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>5.147465204406666</v>
+        <v>13.35697223756267</v>
       </c>
       <c r="R18">
-        <v>46.32718683965999</v>
+        <v>120.212750138064</v>
       </c>
       <c r="S18">
-        <v>2.276824289030996E-05</v>
+        <v>0.0001276738611749383</v>
       </c>
       <c r="T18">
-        <v>3.051619306614494E-05</v>
+        <v>0.0001923553948145822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H19">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I19">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J19">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>34.83094847017278</v>
+        <v>31.77368365401066</v>
       </c>
       <c r="R19">
-        <v>313.478536231555</v>
+        <v>285.9631528860959</v>
       </c>
       <c r="S19">
-        <v>0.0001540640807420815</v>
+        <v>0.0003037117097878171</v>
       </c>
       <c r="T19">
-        <v>0.0002064915266028023</v>
+        <v>0.0004575767138897734</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H20">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I20">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J20">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>1094.795146503153</v>
+        <v>1919.417038944615</v>
       </c>
       <c r="R20">
-        <v>4379.180586012611</v>
+        <v>7677.668155778461</v>
       </c>
       <c r="S20">
-        <v>0.004842492531931446</v>
+        <v>0.0183469262500873</v>
       </c>
       <c r="T20">
-        <v>0.002884611161407083</v>
+        <v>0.01228522671400466</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H21">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I21">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J21">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>4254.857910969066</v>
+        <v>5434.758782386273</v>
       </c>
       <c r="R21">
-        <v>25529.1474658144</v>
+        <v>32608.55269431764</v>
       </c>
       <c r="S21">
-        <v>0.01882006668015294</v>
+        <v>0.05194864719044123</v>
       </c>
       <c r="T21">
-        <v>0.01681631124240728</v>
+        <v>0.05217775169974657</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H22">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I22">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J22">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>5856.09839900217</v>
+        <v>5554.198012518243</v>
       </c>
       <c r="R22">
-        <v>35136.59039401302</v>
+        <v>33325.18807510946</v>
       </c>
       <c r="S22">
-        <v>0.0259026657671998</v>
+        <v>0.05309031817810911</v>
       </c>
       <c r="T22">
-        <v>0.02314483242552149</v>
+        <v>0.053324457697671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H23">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I23">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J23">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>1877.698664156993</v>
+        <v>2963.901760302106</v>
       </c>
       <c r="R23">
-        <v>7510.794656627972</v>
+        <v>11855.60704120842</v>
       </c>
       <c r="S23">
-        <v>0.008305427538147848</v>
+        <v>0.02833073058404571</v>
       </c>
       <c r="T23">
-        <v>0.004947437465069942</v>
+        <v>0.01897045006090494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H24">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I24">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J24">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>856.4430983756019</v>
+        <v>2935.471120682491</v>
       </c>
       <c r="R24">
-        <v>5138.658590253613</v>
+        <v>17612.82672409495</v>
       </c>
       <c r="S24">
-        <v>0.003788214919617511</v>
+        <v>0.02805897367152467</v>
       </c>
       <c r="T24">
-        <v>0.003384887111404287</v>
+        <v>0.02818271967343805</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H25">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I25">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J25">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>5795.226240989076</v>
+        <v>6982.924655765351</v>
       </c>
       <c r="R25">
-        <v>34771.35744593446</v>
+        <v>41897.5479345921</v>
       </c>
       <c r="S25">
-        <v>0.02563341633590438</v>
+        <v>0.0667469346524541</v>
       </c>
       <c r="T25">
-        <v>0.02290424973708289</v>
+        <v>0.06704130273590246</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H26">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I26">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J26">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>3763.017813586792</v>
+        <v>15.353870183946</v>
       </c>
       <c r="R26">
-        <v>22578.10688152075</v>
+        <v>92.12322110367599</v>
       </c>
       <c r="S26">
-        <v>0.01664456196944472</v>
+        <v>0.0001467613958835967</v>
       </c>
       <c r="T26">
-        <v>0.0148724305460029</v>
+        <v>0.000147408644645737</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H27">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I27">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J27">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>14624.75072564744</v>
+        <v>43.47391897265899</v>
       </c>
       <c r="R27">
-        <v>131622.756530827</v>
+        <v>391.265270753931</v>
       </c>
       <c r="S27">
-        <v>0.06468812580738163</v>
+        <v>0.0004155494970661563</v>
       </c>
       <c r="T27">
-        <v>0.08670125954538502</v>
+        <v>0.0006260732372120979</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H28">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I28">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J28">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>20128.51688642264</v>
+        <v>44.42934158124699</v>
       </c>
       <c r="R28">
-        <v>181156.6519778038</v>
+        <v>399.8640742312229</v>
       </c>
       <c r="S28">
-        <v>0.08903235734346304</v>
+        <v>0.0004246819929134726</v>
       </c>
       <c r="T28">
-        <v>0.119329744456628</v>
+        <v>0.0006398323953372373</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H29">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I29">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J29">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>6454.005157347984</v>
+        <v>23.708950135542</v>
       </c>
       <c r="R29">
-        <v>38724.0309440879</v>
+        <v>142.253700813252</v>
       </c>
       <c r="S29">
-        <v>0.02854732401338304</v>
+        <v>0.0002266242045256419</v>
       </c>
       <c r="T29">
-        <v>0.02550791630579894</v>
+        <v>0.0002276236651465166</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H30">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I30">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J30">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>2943.756780256767</v>
+        <v>23.48152673504633</v>
       </c>
       <c r="R30">
-        <v>26493.8110223109</v>
+        <v>211.333740615417</v>
       </c>
       <c r="S30">
-        <v>0.01302081057789463</v>
+        <v>0.0002244503568042878</v>
       </c>
       <c r="T30">
-        <v>0.01745174501989536</v>
+        <v>0.0003381603454461633</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H31">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I31">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J31">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>19919.28777567404</v>
+        <v>55.85806340859032</v>
       </c>
       <c r="R31">
-        <v>179273.5899810664</v>
+        <v>502.7225706773129</v>
       </c>
       <c r="S31">
-        <v>0.08810689616517871</v>
+        <v>0.000533924493237594</v>
       </c>
       <c r="T31">
-        <v>0.1180893522081877</v>
+        <v>0.000804418819582573</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H32">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I32">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J32">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>13.48225430410834</v>
+        <v>5.339412087156</v>
       </c>
       <c r="R32">
-        <v>80.89352582465001</v>
+        <v>32.036472522936</v>
       </c>
       <c r="S32">
-        <v>5.963464122925503E-05</v>
+        <v>5.103726693795519E-05</v>
       </c>
       <c r="T32">
-        <v>5.328539504049711E-05</v>
+        <v>5.126235206779967E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H33">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I33">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J33">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>52.39800027133834</v>
+        <v>15.118349032374</v>
       </c>
       <c r="R33">
-        <v>471.5820024420451</v>
+        <v>136.065141291366</v>
       </c>
       <c r="S33">
-        <v>0.0002317665782612849</v>
+        <v>0.0001445101450555833</v>
       </c>
       <c r="T33">
-        <v>0.0003106359011793236</v>
+        <v>0.0002177211979889252</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H34">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I34">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J34">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>72.11706052717834</v>
+        <v>15.450603699342</v>
       </c>
       <c r="R34">
-        <v>649.053544744605</v>
+        <v>139.055433294078</v>
       </c>
       <c r="S34">
-        <v>0.0003189878290410411</v>
+        <v>0.0001476860321855949</v>
       </c>
       <c r="T34">
-        <v>0.0004275382261013084</v>
+        <v>0.0002225060381837625</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H35">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I35">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J35">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>23.12360534069667</v>
+        <v>8.244947587212</v>
       </c>
       <c r="R35">
-        <v>138.74163204418</v>
+        <v>49.469685523272</v>
       </c>
       <c r="S35">
-        <v>0.0001022802179305526</v>
+        <v>7.881009819605894E-05</v>
       </c>
       <c r="T35">
-        <v>9.139053585156808E-05</v>
+        <v>7.915766737932028E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H36">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I36">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J36">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>10.54698103675333</v>
+        <v>8.165859563218</v>
       </c>
       <c r="R36">
-        <v>94.92282933078</v>
+        <v>73.492736068962</v>
       </c>
       <c r="S36">
-        <v>4.665135488409248E-05</v>
+        <v>7.805412796445107E-05</v>
       </c>
       <c r="T36">
-        <v>6.252664113338742E-05</v>
+        <v>0.0001175975447389157</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H37">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I37">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J37">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>71.36742812609057</v>
+        <v>19.425018927202</v>
       </c>
       <c r="R37">
-        <v>642.3068531348151</v>
+        <v>174.825170344818</v>
       </c>
       <c r="S37">
-        <v>0.0003156720586747254</v>
+        <v>0.0001856758497152263</v>
       </c>
       <c r="T37">
-        <v>0.0004230941111492251</v>
+        <v>0.0002797420791603365</v>
       </c>
     </row>
   </sheetData>
